--- a/plan.xlsx
+++ b/plan.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nguye\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nguye\Desktop\Đồ án Phát triển\DoAnPhatTrienUngDungDaNenTang\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D498A27-16A4-454B-9D43-F9DB16E1811F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60CF5F05-D54A-40A5-8BEC-529CACAAA475}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1500" yWindow="1500" windowWidth="17280" windowHeight="8880" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Trang_tính1" sheetId="1" r:id="rId1"/>
@@ -532,7 +532,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -648,6 +648,12 @@
       <name val="Arial"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -1328,7 +1334,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="130">
+  <cellXfs count="131">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1533,36 +1539,60 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1572,29 +1602,110 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="41" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="42" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
@@ -1608,110 +1719,8 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="41" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="42" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2044,48 +2053,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="89" t="s">
+      <c r="A1" s="70" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="89" t="s">
+      <c r="B1" s="70" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="89" t="s">
+      <c r="C1" s="70" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="89" t="s">
+      <c r="D1" s="70" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="89" t="s">
+      <c r="E1" s="70" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="89" t="s">
+      <c r="F1" s="70" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="90"/>
-      <c r="B2" s="90"/>
-      <c r="C2" s="90"/>
-      <c r="D2" s="90"/>
-      <c r="E2" s="90"/>
-      <c r="F2" s="90"/>
+      <c r="A2" s="71"/>
+      <c r="B2" s="71"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="71"/>
+      <c r="F2" s="71"/>
     </row>
     <row r="3" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="86" t="s">
+      <c r="A3" s="75" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="87"/>
-      <c r="C3" s="87"/>
-      <c r="D3" s="87"/>
-      <c r="E3" s="87"/>
-      <c r="F3" s="88"/>
+      <c r="B3" s="76"/>
+      <c r="C3" s="76"/>
+      <c r="D3" s="76"/>
+      <c r="E3" s="76"/>
+      <c r="F3" s="77"/>
     </row>
     <row r="4" spans="1:6" ht="30" x14ac:dyDescent="0.3">
-      <c r="A4" s="78">
+      <c r="A4" s="72">
         <v>1</v>
       </c>
-      <c r="B4" s="78" t="s">
+      <c r="B4" s="72" t="s">
         <v>7</v>
       </c>
       <c r="C4" s="5" t="s">
@@ -2102,8 +2111,8 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="78"/>
-      <c r="B5" s="78"/>
+      <c r="A5" s="72"/>
+      <c r="B5" s="72"/>
       <c r="C5" s="9" t="s">
         <v>11</v>
       </c>
@@ -2118,8 +2127,8 @@
       </c>
     </row>
     <row r="6" spans="1:6" ht="15" x14ac:dyDescent="0.3">
-      <c r="A6" s="78"/>
-      <c r="B6" s="78"/>
+      <c r="A6" s="72"/>
+      <c r="B6" s="72"/>
       <c r="C6" s="79" t="s">
         <v>13</v>
       </c>
@@ -2134,8 +2143,8 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="30" x14ac:dyDescent="0.3">
-      <c r="A7" s="78"/>
-      <c r="B7" s="78"/>
+      <c r="A7" s="72"/>
+      <c r="B7" s="72"/>
       <c r="C7" s="79"/>
       <c r="D7" s="5" t="s">
         <v>15</v>
@@ -2148,8 +2157,8 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="15" x14ac:dyDescent="0.3">
-      <c r="A8" s="78"/>
-      <c r="B8" s="78"/>
+      <c r="A8" s="72"/>
+      <c r="B8" s="72"/>
       <c r="C8" s="79"/>
       <c r="D8" s="5" t="s">
         <v>16</v>
@@ -2162,9 +2171,9 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="30" x14ac:dyDescent="0.3">
-      <c r="A9" s="78"/>
-      <c r="B9" s="78"/>
-      <c r="C9" s="71"/>
+      <c r="A9" s="72"/>
+      <c r="B9" s="72"/>
+      <c r="C9" s="80"/>
       <c r="D9" s="5" t="s">
         <v>17</v>
       </c>
@@ -2176,8 +2185,8 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="15" x14ac:dyDescent="0.3">
-      <c r="A10" s="78"/>
-      <c r="B10" s="78"/>
+      <c r="A10" s="72"/>
+      <c r="B10" s="72"/>
       <c r="C10" s="79" t="s">
         <v>18</v>
       </c>
@@ -2192,9 +2201,9 @@
       </c>
     </row>
     <row r="11" spans="1:6" ht="30" x14ac:dyDescent="0.3">
-      <c r="A11" s="78"/>
-      <c r="B11" s="78"/>
-      <c r="C11" s="71"/>
+      <c r="A11" s="72"/>
+      <c r="B11" s="72"/>
+      <c r="C11" s="80"/>
       <c r="D11" s="5" t="s">
         <v>19</v>
       </c>
@@ -2206,8 +2215,8 @@
       </c>
     </row>
     <row r="12" spans="1:6" ht="15" x14ac:dyDescent="0.3">
-      <c r="A12" s="78"/>
-      <c r="B12" s="78"/>
+      <c r="A12" s="72"/>
+      <c r="B12" s="72"/>
       <c r="C12" s="12" t="s">
         <v>20</v>
       </c>
@@ -2218,8 +2227,8 @@
       <c r="F12" s="8"/>
     </row>
     <row r="13" spans="1:6" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="75"/>
-      <c r="B13" s="83"/>
+      <c r="A13" s="74"/>
+      <c r="B13" s="78"/>
       <c r="C13" s="14" t="s">
         <v>22</v>
       </c>
@@ -2234,10 +2243,10 @@
       </c>
     </row>
     <row r="14" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="78">
+      <c r="A14" s="72">
         <v>2</v>
       </c>
-      <c r="B14" s="78" t="s">
+      <c r="B14" s="72" t="s">
         <v>24</v>
       </c>
       <c r="C14" s="19" t="s">
@@ -2252,8 +2261,8 @@
       </c>
     </row>
     <row r="15" spans="1:6" ht="30" x14ac:dyDescent="0.3">
-      <c r="A15" s="78"/>
-      <c r="B15" s="78"/>
+      <c r="A15" s="72"/>
+      <c r="B15" s="72"/>
       <c r="C15" s="5" t="s">
         <v>26</v>
       </c>
@@ -2266,8 +2275,8 @@
       </c>
     </row>
     <row r="16" spans="1:6" ht="15" x14ac:dyDescent="0.3">
-      <c r="A16" s="78"/>
-      <c r="B16" s="78"/>
+      <c r="A16" s="72"/>
+      <c r="B16" s="72"/>
       <c r="C16" s="79" t="s">
         <v>28</v>
       </c>
@@ -2280,8 +2289,8 @@
       </c>
     </row>
     <row r="17" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="78"/>
-      <c r="B17" s="78"/>
+      <c r="A17" s="72"/>
+      <c r="B17" s="72"/>
       <c r="C17" s="79"/>
       <c r="D17" s="5" t="s">
         <v>30</v>
@@ -2294,9 +2303,9 @@
       </c>
     </row>
     <row r="18" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="78"/>
-      <c r="B18" s="78"/>
-      <c r="C18" s="71"/>
+      <c r="A18" s="72"/>
+      <c r="B18" s="72"/>
+      <c r="C18" s="80"/>
       <c r="D18" s="5" t="s">
         <v>31</v>
       </c>
@@ -2308,8 +2317,8 @@
       </c>
     </row>
     <row r="19" spans="1:6" ht="45" x14ac:dyDescent="0.3">
-      <c r="A19" s="75"/>
-      <c r="B19" s="75"/>
+      <c r="A19" s="74"/>
+      <c r="B19" s="74"/>
       <c r="C19" s="9" t="s">
         <v>32</v>
       </c>
@@ -2322,34 +2331,34 @@
       <c r="F19" s="8"/>
     </row>
     <row r="20" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="78">
+      <c r="A20" s="72">
         <v>3</v>
       </c>
-      <c r="B20" s="78" t="s">
+      <c r="B20" s="72" t="s">
         <v>35</v>
       </c>
-      <c r="C20" s="70" t="s">
+      <c r="C20" s="85" t="s">
         <v>36</v>
       </c>
-      <c r="D20" s="72" t="s">
+      <c r="D20" s="81" t="s">
         <v>37</v>
       </c>
-      <c r="E20" s="74"/>
-      <c r="F20" s="76" t="s">
+      <c r="E20" s="73"/>
+      <c r="F20" s="86" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="78"/>
-      <c r="B21" s="78"/>
-      <c r="C21" s="71"/>
-      <c r="D21" s="73"/>
-      <c r="E21" s="75"/>
-      <c r="F21" s="77"/>
+      <c r="A21" s="72"/>
+      <c r="B21" s="72"/>
+      <c r="C21" s="80"/>
+      <c r="D21" s="82"/>
+      <c r="E21" s="74"/>
+      <c r="F21" s="87"/>
     </row>
     <row r="22" spans="1:6" ht="68.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="78"/>
-      <c r="B22" s="78"/>
+      <c r="A22" s="72"/>
+      <c r="B22" s="72"/>
       <c r="C22" s="5" t="s">
         <v>38</v>
       </c>
@@ -2362,8 +2371,8 @@
       <c r="F22" s="8"/>
     </row>
     <row r="23" spans="1:6" ht="45" x14ac:dyDescent="0.3">
-      <c r="A23" s="78"/>
-      <c r="B23" s="78"/>
+      <c r="A23" s="72"/>
+      <c r="B23" s="72"/>
       <c r="C23" s="3" t="s">
         <v>41</v>
       </c>
@@ -2376,10 +2385,10 @@
       <c r="F23" s="18"/>
     </row>
     <row r="24" spans="1:6" ht="30" x14ac:dyDescent="0.3">
-      <c r="A24" s="74">
+      <c r="A24" s="73">
         <v>4</v>
       </c>
-      <c r="B24" s="74" t="s">
+      <c r="B24" s="73" t="s">
         <v>44</v>
       </c>
       <c r="C24" s="15" t="s">
@@ -2394,8 +2403,8 @@
       <c r="F24" s="17"/>
     </row>
     <row r="25" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="78"/>
-      <c r="B25" s="78"/>
+      <c r="A25" s="72"/>
+      <c r="B25" s="72"/>
       <c r="C25" s="10" t="s">
         <v>47</v>
       </c>
@@ -2408,8 +2417,8 @@
       <c r="F25" s="8"/>
     </row>
     <row r="26" spans="1:6" ht="30" x14ac:dyDescent="0.3">
-      <c r="A26" s="78"/>
-      <c r="B26" s="78"/>
+      <c r="A26" s="72"/>
+      <c r="B26" s="72"/>
       <c r="C26" s="5" t="s">
         <v>50</v>
       </c>
@@ -2422,8 +2431,8 @@
       <c r="F26" s="8"/>
     </row>
     <row r="27" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="75"/>
-      <c r="B27" s="75"/>
+      <c r="A27" s="74"/>
+      <c r="B27" s="74"/>
       <c r="C27" s="5" t="s">
         <v>52</v>
       </c>
@@ -2436,10 +2445,10 @@
       <c r="F27" s="8"/>
     </row>
     <row r="28" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="78">
+      <c r="A28" s="72">
         <v>5</v>
       </c>
-      <c r="B28" s="78" t="s">
+      <c r="B28" s="72" t="s">
         <v>53</v>
       </c>
       <c r="C28" s="19" t="s">
@@ -2456,8 +2465,8 @@
       </c>
     </row>
     <row r="29" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="78"/>
-      <c r="B29" s="78"/>
+      <c r="A29" s="72"/>
+      <c r="B29" s="72"/>
       <c r="C29" s="5" t="s">
         <v>55</v>
       </c>
@@ -2472,8 +2481,8 @@
       </c>
     </row>
     <row r="30" spans="1:6" ht="15" x14ac:dyDescent="0.3">
-      <c r="A30" s="78"/>
-      <c r="B30" s="78"/>
+      <c r="A30" s="72"/>
+      <c r="B30" s="72"/>
       <c r="C30" s="79" t="s">
         <v>56</v>
       </c>
@@ -2488,9 +2497,9 @@
       </c>
     </row>
     <row r="31" spans="1:6" ht="15" x14ac:dyDescent="0.3">
-      <c r="A31" s="78"/>
-      <c r="B31" s="78"/>
-      <c r="C31" s="71"/>
+      <c r="A31" s="72"/>
+      <c r="B31" s="72"/>
+      <c r="C31" s="80"/>
       <c r="D31" s="5" t="s">
         <v>58</v>
       </c>
@@ -2502,8 +2511,8 @@
       </c>
     </row>
     <row r="32" spans="1:6" ht="15" x14ac:dyDescent="0.3">
-      <c r="A32" s="78"/>
-      <c r="B32" s="78"/>
+      <c r="A32" s="72"/>
+      <c r="B32" s="72"/>
       <c r="C32" s="79" t="s">
         <v>59</v>
       </c>
@@ -2516,9 +2525,9 @@
       <c r="F32" s="8"/>
     </row>
     <row r="33" spans="1:9" ht="15" x14ac:dyDescent="0.3">
-      <c r="A33" s="75"/>
-      <c r="B33" s="75"/>
-      <c r="C33" s="71"/>
+      <c r="A33" s="74"/>
+      <c r="B33" s="74"/>
+      <c r="C33" s="80"/>
       <c r="D33" s="5" t="s">
         <v>61</v>
       </c>
@@ -2530,20 +2539,20 @@
       </c>
     </row>
     <row r="34" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A34" s="86" t="s">
+      <c r="A34" s="75" t="s">
         <v>62</v>
       </c>
-      <c r="B34" s="87"/>
-      <c r="C34" s="87"/>
-      <c r="D34" s="87"/>
-      <c r="E34" s="87"/>
-      <c r="F34" s="88"/>
+      <c r="B34" s="76"/>
+      <c r="C34" s="76"/>
+      <c r="D34" s="76"/>
+      <c r="E34" s="76"/>
+      <c r="F34" s="77"/>
     </row>
     <row r="35" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="78">
+      <c r="A35" s="72">
         <v>6</v>
       </c>
-      <c r="B35" s="78" t="s">
+      <c r="B35" s="72" t="s">
         <v>63</v>
       </c>
       <c r="C35" s="1" t="s">
@@ -2560,8 +2569,8 @@
       </c>
     </row>
     <row r="36" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="78"/>
-      <c r="B36" s="78"/>
+      <c r="A36" s="72"/>
+      <c r="B36" s="72"/>
       <c r="C36" s="79" t="s">
         <v>65</v>
       </c>
@@ -2576,8 +2585,8 @@
       </c>
     </row>
     <row r="37" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="78"/>
-      <c r="B37" s="78"/>
+      <c r="A37" s="72"/>
+      <c r="B37" s="72"/>
       <c r="C37" s="79"/>
       <c r="D37" s="5" t="s">
         <v>67</v>
@@ -2590,9 +2599,9 @@
       </c>
     </row>
     <row r="38" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="78"/>
-      <c r="B38" s="78"/>
-      <c r="C38" s="71"/>
+      <c r="A38" s="72"/>
+      <c r="B38" s="72"/>
+      <c r="C38" s="80"/>
       <c r="D38" s="5" t="s">
         <v>69</v>
       </c>
@@ -2604,8 +2613,8 @@
       </c>
     </row>
     <row r="39" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="78"/>
-      <c r="B39" s="78"/>
+      <c r="A39" s="72"/>
+      <c r="B39" s="72"/>
       <c r="C39" s="22" t="s">
         <v>20</v>
       </c>
@@ -2620,10 +2629,10 @@
       </c>
     </row>
     <row r="40" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="74">
+      <c r="A40" s="73">
         <v>7</v>
       </c>
-      <c r="B40" s="74" t="s">
+      <c r="B40" s="73" t="s">
         <v>71</v>
       </c>
       <c r="C40" s="24" t="s">
@@ -2639,15 +2648,15 @@
       <c r="I40" s="7"/>
     </row>
     <row r="41" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="78"/>
-      <c r="B41" s="78"/>
-      <c r="C41" s="72" t="s">
+      <c r="A41" s="72"/>
+      <c r="B41" s="72"/>
+      <c r="C41" s="81" t="s">
         <v>73</v>
       </c>
       <c r="D41" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="E41" s="84" t="s">
+      <c r="E41" s="83" t="s">
         <v>75</v>
       </c>
       <c r="F41" s="2"/>
@@ -2656,22 +2665,22 @@
       <c r="I41" s="7"/>
     </row>
     <row r="42" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="78"/>
-      <c r="B42" s="78"/>
-      <c r="C42" s="73"/>
+      <c r="A42" s="72"/>
+      <c r="B42" s="72"/>
+      <c r="C42" s="82"/>
       <c r="D42" s="27" t="s">
         <v>76</v>
       </c>
-      <c r="E42" s="85"/>
+      <c r="E42" s="84"/>
       <c r="F42" s="2"/>
       <c r="G42" s="7"/>
       <c r="H42" s="7"/>
       <c r="I42" s="7"/>
     </row>
     <row r="43" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="78"/>
-      <c r="B43" s="78"/>
-      <c r="C43" s="74" t="s">
+      <c r="A43" s="72"/>
+      <c r="B43" s="72"/>
+      <c r="C43" s="73" t="s">
         <v>77</v>
       </c>
       <c r="D43" s="6" t="s">
@@ -2684,9 +2693,9 @@
       <c r="I43" s="7"/>
     </row>
     <row r="44" spans="1:9" ht="30" x14ac:dyDescent="0.3">
-      <c r="A44" s="75"/>
-      <c r="B44" s="75"/>
-      <c r="C44" s="75"/>
+      <c r="A44" s="74"/>
+      <c r="B44" s="74"/>
+      <c r="C44" s="74"/>
       <c r="D44" s="6" t="s">
         <v>79</v>
       </c>
@@ -2697,13 +2706,13 @@
       <c r="I44" s="7"/>
     </row>
     <row r="45" spans="1:9" ht="30.6" x14ac:dyDescent="0.3">
-      <c r="A45" s="74">
+      <c r="A45" s="73">
         <v>8</v>
       </c>
-      <c r="B45" s="74" t="s">
+      <c r="B45" s="73" t="s">
         <v>80</v>
       </c>
-      <c r="C45" s="72" t="s">
+      <c r="C45" s="81" t="s">
         <v>81</v>
       </c>
       <c r="D45" s="25" t="s">
@@ -2718,9 +2727,9 @@
       <c r="I45" s="7"/>
     </row>
     <row r="46" spans="1:9" ht="30.6" x14ac:dyDescent="0.3">
-      <c r="A46" s="78"/>
-      <c r="B46" s="78"/>
-      <c r="C46" s="73"/>
+      <c r="A46" s="72"/>
+      <c r="B46" s="72"/>
+      <c r="C46" s="82"/>
       <c r="D46" s="27" t="s">
         <v>83</v>
       </c>
@@ -2733,9 +2742,9 @@
       <c r="I46" s="7"/>
     </row>
     <row r="47" spans="1:9" ht="45.6" x14ac:dyDescent="0.3">
-      <c r="A47" s="78"/>
-      <c r="B47" s="78"/>
-      <c r="C47" s="72" t="s">
+      <c r="A47" s="72"/>
+      <c r="B47" s="72"/>
+      <c r="C47" s="81" t="s">
         <v>84</v>
       </c>
       <c r="D47" s="6" t="s">
@@ -2750,9 +2759,9 @@
       <c r="I47" s="7"/>
     </row>
     <row r="48" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A48" s="78"/>
-      <c r="B48" s="78"/>
-      <c r="C48" s="73"/>
+      <c r="A48" s="72"/>
+      <c r="B48" s="72"/>
+      <c r="C48" s="82"/>
       <c r="D48" s="27" t="s">
         <v>87</v>
       </c>
@@ -2765,8 +2774,8 @@
       <c r="I48" s="7"/>
     </row>
     <row r="49" spans="1:9" ht="30" x14ac:dyDescent="0.3">
-      <c r="A49" s="78"/>
-      <c r="B49" s="78"/>
+      <c r="A49" s="72"/>
+      <c r="B49" s="72"/>
       <c r="C49" s="6" t="s">
         <v>88</v>
       </c>
@@ -2782,8 +2791,8 @@
       <c r="I49" s="7"/>
     </row>
     <row r="50" spans="1:9" ht="45" x14ac:dyDescent="0.3">
-      <c r="A50" s="75"/>
-      <c r="B50" s="75"/>
+      <c r="A50" s="74"/>
+      <c r="B50" s="74"/>
       <c r="C50" s="6" t="s">
         <v>91</v>
       </c>
@@ -2799,20 +2808,20 @@
       <c r="I50" s="7"/>
     </row>
     <row r="51" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A51" s="80" t="s">
+      <c r="A51" s="88" t="s">
         <v>94</v>
       </c>
-      <c r="B51" s="81"/>
-      <c r="C51" s="81"/>
-      <c r="D51" s="81"/>
-      <c r="E51" s="81"/>
-      <c r="F51" s="82"/>
+      <c r="B51" s="89"/>
+      <c r="C51" s="89"/>
+      <c r="D51" s="89"/>
+      <c r="E51" s="89"/>
+      <c r="F51" s="90"/>
     </row>
     <row r="52" spans="1:9" ht="30" x14ac:dyDescent="0.3">
-      <c r="A52" s="78">
+      <c r="A52" s="72">
         <v>8</v>
       </c>
-      <c r="B52" s="78" t="s">
+      <c r="B52" s="72" t="s">
         <v>95</v>
       </c>
       <c r="C52" s="5" t="s">
@@ -2829,8 +2838,8 @@
       </c>
     </row>
     <row r="53" spans="1:9" ht="30" x14ac:dyDescent="0.3">
-      <c r="A53" s="78"/>
-      <c r="B53" s="78"/>
+      <c r="A53" s="72"/>
+      <c r="B53" s="72"/>
       <c r="C53" s="4" t="s">
         <v>97</v>
       </c>
@@ -2845,8 +2854,8 @@
       </c>
     </row>
     <row r="54" spans="1:9" ht="30" x14ac:dyDescent="0.3">
-      <c r="A54" s="78"/>
-      <c r="B54" s="78"/>
+      <c r="A54" s="72"/>
+      <c r="B54" s="72"/>
       <c r="C54" s="12" t="s">
         <v>99</v>
       </c>
@@ -2857,8 +2866,8 @@
       <c r="F54" s="2"/>
     </row>
     <row r="55" spans="1:9" ht="30.6" x14ac:dyDescent="0.3">
-      <c r="A55" s="75"/>
-      <c r="B55" s="83"/>
+      <c r="A55" s="74"/>
+      <c r="B55" s="78"/>
       <c r="C55" s="33" t="s">
         <v>101</v>
       </c>
@@ -2871,10 +2880,10 @@
       </c>
     </row>
     <row r="56" spans="1:9" ht="30" x14ac:dyDescent="0.3">
-      <c r="A56" s="78">
+      <c r="A56" s="72">
         <v>9</v>
       </c>
-      <c r="B56" s="78" t="s">
+      <c r="B56" s="72" t="s">
         <v>103</v>
       </c>
       <c r="C56" s="19" t="s">
@@ -2889,8 +2898,8 @@
       </c>
     </row>
     <row r="57" spans="1:9" ht="30" x14ac:dyDescent="0.3">
-      <c r="A57" s="75"/>
-      <c r="B57" s="75"/>
+      <c r="A57" s="74"/>
+      <c r="B57" s="74"/>
       <c r="C57" s="5" t="s">
         <v>106</v>
       </c>
@@ -2904,12 +2913,28 @@
     </row>
   </sheetData>
   <mergeCells count="44">
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="A56:A57"/>
+    <mergeCell ref="B56:B57"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="C36:C38"/>
+    <mergeCell ref="A45:A50"/>
+    <mergeCell ref="B45:B50"/>
+    <mergeCell ref="C45:C46"/>
+    <mergeCell ref="A40:A44"/>
+    <mergeCell ref="B40:B44"/>
+    <mergeCell ref="A51:F51"/>
+    <mergeCell ref="A52:A55"/>
+    <mergeCell ref="B52:B55"/>
+    <mergeCell ref="C47:C48"/>
+    <mergeCell ref="E41:E42"/>
+    <mergeCell ref="C43:C44"/>
+    <mergeCell ref="A28:A33"/>
+    <mergeCell ref="B28:B33"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="A34:F34"/>
+    <mergeCell ref="A35:A39"/>
+    <mergeCell ref="B35:B39"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="B20:B23"/>
     <mergeCell ref="A24:A27"/>
@@ -2922,32 +2947,16 @@
     <mergeCell ref="A14:A19"/>
     <mergeCell ref="B14:B19"/>
     <mergeCell ref="C16:C18"/>
-    <mergeCell ref="C47:C48"/>
-    <mergeCell ref="E41:E42"/>
-    <mergeCell ref="C43:C44"/>
-    <mergeCell ref="A28:A33"/>
-    <mergeCell ref="B28:B33"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="A34:F34"/>
-    <mergeCell ref="A35:A39"/>
-    <mergeCell ref="B35:B39"/>
     <mergeCell ref="C20:C21"/>
     <mergeCell ref="D20:D21"/>
     <mergeCell ref="E20:E21"/>
     <mergeCell ref="F20:F21"/>
-    <mergeCell ref="A56:A57"/>
-    <mergeCell ref="B56:B57"/>
-    <mergeCell ref="C41:C42"/>
-    <mergeCell ref="C36:C38"/>
-    <mergeCell ref="A45:A50"/>
-    <mergeCell ref="B45:B50"/>
-    <mergeCell ref="C45:C46"/>
-    <mergeCell ref="A40:A44"/>
-    <mergeCell ref="B40:B44"/>
-    <mergeCell ref="A51:F51"/>
-    <mergeCell ref="A52:A55"/>
-    <mergeCell ref="B52:B55"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2958,7 +2967,7 @@
   <dimension ref="A1:AA13"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="N10" sqref="N10"/>
+      <selection activeCell="O4" sqref="O4:O6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2989,84 +2998,84 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A1" s="122" t="s">
+      <c r="A1" s="93" t="s">
         <v>108</v>
       </c>
-      <c r="B1" s="124" t="s">
+      <c r="B1" s="95" t="s">
         <v>109</v>
       </c>
-      <c r="C1" s="125"/>
-      <c r="D1" s="125"/>
-      <c r="E1" s="125"/>
-      <c r="F1" s="126"/>
-      <c r="G1" s="101" t="s">
+      <c r="C1" s="96"/>
+      <c r="D1" s="96"/>
+      <c r="E1" s="96"/>
+      <c r="F1" s="97"/>
+      <c r="G1" s="111" t="s">
         <v>110</v>
       </c>
-      <c r="H1" s="102"/>
-      <c r="I1" s="102"/>
-      <c r="J1" s="102"/>
-      <c r="K1" s="102"/>
-      <c r="L1" s="102"/>
-      <c r="M1" s="102"/>
-      <c r="N1" s="102"/>
-      <c r="O1" s="102"/>
-      <c r="P1" s="102"/>
-      <c r="Q1" s="102"/>
-      <c r="R1" s="102"/>
-      <c r="S1" s="102"/>
-      <c r="T1" s="102"/>
-      <c r="U1" s="102"/>
-      <c r="V1" s="102"/>
-      <c r="W1" s="102"/>
-      <c r="X1" s="102"/>
-      <c r="Y1" s="103"/>
-      <c r="Z1" s="103"/>
+      <c r="H1" s="112"/>
+      <c r="I1" s="112"/>
+      <c r="J1" s="112"/>
+      <c r="K1" s="112"/>
+      <c r="L1" s="112"/>
+      <c r="M1" s="112"/>
+      <c r="N1" s="112"/>
+      <c r="O1" s="112"/>
+      <c r="P1" s="112"/>
+      <c r="Q1" s="112"/>
+      <c r="R1" s="112"/>
+      <c r="S1" s="112"/>
+      <c r="T1" s="112"/>
+      <c r="U1" s="112"/>
+      <c r="V1" s="112"/>
+      <c r="W1" s="112"/>
+      <c r="X1" s="112"/>
+      <c r="Y1" s="113"/>
+      <c r="Z1" s="113"/>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A2" s="123"/>
-      <c r="B2" s="127"/>
-      <c r="C2" s="128"/>
-      <c r="D2" s="128"/>
-      <c r="E2" s="128"/>
-      <c r="F2" s="129"/>
-      <c r="G2" s="98" t="s">
+      <c r="A2" s="94"/>
+      <c r="B2" s="98"/>
+      <c r="C2" s="99"/>
+      <c r="D2" s="99"/>
+      <c r="E2" s="99"/>
+      <c r="F2" s="100"/>
+      <c r="G2" s="123" t="s">
         <v>111</v>
       </c>
-      <c r="H2" s="99"/>
-      <c r="I2" s="100"/>
-      <c r="J2" s="98" t="s">
+      <c r="H2" s="124"/>
+      <c r="I2" s="125"/>
+      <c r="J2" s="123" t="s">
         <v>112</v>
       </c>
-      <c r="K2" s="99"/>
-      <c r="L2" s="100"/>
-      <c r="M2" s="98" t="s">
+      <c r="K2" s="124"/>
+      <c r="L2" s="125"/>
+      <c r="M2" s="123" t="s">
         <v>113</v>
       </c>
-      <c r="N2" s="99"/>
-      <c r="O2" s="100"/>
-      <c r="P2" s="98" t="s">
+      <c r="N2" s="124"/>
+      <c r="O2" s="125"/>
+      <c r="P2" s="123" t="s">
         <v>114</v>
       </c>
-      <c r="Q2" s="99"/>
-      <c r="R2" s="100"/>
-      <c r="S2" s="98" t="s">
+      <c r="Q2" s="124"/>
+      <c r="R2" s="125"/>
+      <c r="S2" s="123" t="s">
         <v>115</v>
       </c>
-      <c r="T2" s="99"/>
-      <c r="U2" s="100"/>
-      <c r="V2" s="98" t="s">
+      <c r="T2" s="124"/>
+      <c r="U2" s="125"/>
+      <c r="V2" s="123" t="s">
         <v>116</v>
       </c>
-      <c r="W2" s="99"/>
-      <c r="X2" s="99"/>
-      <c r="Y2" s="91" t="s">
+      <c r="W2" s="124"/>
+      <c r="X2" s="124"/>
+      <c r="Y2" s="126" t="s">
         <v>117</v>
       </c>
-      <c r="Z2" s="91"/>
-      <c r="AA2" s="91"/>
+      <c r="Z2" s="126"/>
+      <c r="AA2" s="126"/>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A3" s="123"/>
+      <c r="A3" s="94"/>
       <c r="B3" s="36" t="s">
         <v>118</v>
       </c>
@@ -3147,7 +3156,7 @@
       </c>
     </row>
     <row r="4" spans="1:27" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="113" t="s">
+      <c r="A4" s="101" t="s">
         <v>125</v>
       </c>
       <c r="B4" s="42">
@@ -3165,72 +3174,72 @@
       <c r="F4" s="63" t="s">
         <v>125</v>
       </c>
-      <c r="G4" s="116" t="s">
+      <c r="G4" s="104" t="s">
         <v>129</v>
       </c>
       <c r="H4" s="66" t="s">
         <v>130</v>
       </c>
-      <c r="I4" s="107" t="s">
+      <c r="I4" s="117" t="s">
         <v>131</v>
       </c>
-      <c r="J4" s="95" t="s">
+      <c r="J4" s="107" t="s">
         <v>132</v>
       </c>
       <c r="K4" s="45" t="s">
         <v>133</v>
       </c>
-      <c r="L4" s="110" t="s">
+      <c r="L4" s="120" t="s">
         <v>131</v>
       </c>
-      <c r="M4" s="95" t="s">
+      <c r="M4" s="107" t="s">
         <v>134</v>
       </c>
       <c r="N4" s="67" t="s">
         <v>162</v>
       </c>
-      <c r="O4" s="95" t="s">
-        <v>135</v>
-      </c>
-      <c r="P4" s="95" t="s">
+      <c r="O4" s="130" t="s">
+        <v>131</v>
+      </c>
+      <c r="P4" s="107" t="s">
         <v>136</v>
       </c>
       <c r="Q4" s="67" t="s">
         <v>137</v>
       </c>
-      <c r="R4" s="95" t="s">
+      <c r="R4" s="107" t="s">
         <v>135</v>
       </c>
-      <c r="S4" s="95" t="s">
+      <c r="S4" s="107" t="s">
         <v>138</v>
       </c>
       <c r="T4" s="66" t="s">
         <v>139</v>
       </c>
-      <c r="U4" s="95" t="s">
+      <c r="U4" s="107" t="s">
         <v>135</v>
       </c>
-      <c r="V4" s="95" t="s">
+      <c r="V4" s="107" t="s">
         <v>140</v>
       </c>
       <c r="W4" s="66" t="s">
         <v>141</v>
       </c>
-      <c r="X4" s="95" t="s">
+      <c r="X4" s="107" t="s">
         <v>135</v>
       </c>
-      <c r="Y4" s="104" t="s">
+      <c r="Y4" s="114" t="s">
         <v>142</v>
       </c>
       <c r="Z4" s="67" t="s">
         <v>143</v>
       </c>
-      <c r="AA4" s="92" t="s">
+      <c r="AA4" s="127" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="5" spans="1:27" ht="39" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="114"/>
+      <c r="A5" s="102"/>
       <c r="B5" s="46">
         <v>74265</v>
       </c>
@@ -3246,44 +3255,44 @@
       <c r="F5" s="64" t="s">
         <v>125</v>
       </c>
-      <c r="G5" s="117"/>
+      <c r="G5" s="105"/>
       <c r="H5" s="61" t="s">
         <v>130</v>
       </c>
-      <c r="I5" s="108"/>
-      <c r="J5" s="96"/>
+      <c r="I5" s="118"/>
+      <c r="J5" s="108"/>
       <c r="K5" s="41" t="s">
         <v>146</v>
       </c>
-      <c r="L5" s="111"/>
-      <c r="M5" s="96"/>
+      <c r="L5" s="121"/>
+      <c r="M5" s="108"/>
       <c r="N5" s="59" t="s">
         <v>147</v>
       </c>
-      <c r="O5" s="96"/>
-      <c r="P5" s="96"/>
+      <c r="O5" s="108"/>
+      <c r="P5" s="108"/>
       <c r="Q5" s="61" t="s">
         <v>148</v>
       </c>
-      <c r="R5" s="96"/>
-      <c r="S5" s="96"/>
+      <c r="R5" s="108"/>
+      <c r="S5" s="108"/>
       <c r="T5" s="61" t="s">
         <v>149</v>
       </c>
-      <c r="U5" s="96"/>
-      <c r="V5" s="96"/>
+      <c r="U5" s="108"/>
+      <c r="V5" s="108"/>
       <c r="W5" s="61" t="s">
         <v>150</v>
       </c>
-      <c r="X5" s="96"/>
-      <c r="Y5" s="105"/>
+      <c r="X5" s="108"/>
+      <c r="Y5" s="115"/>
       <c r="Z5" s="62" t="s">
         <v>151</v>
       </c>
-      <c r="AA5" s="93"/>
+      <c r="AA5" s="128"/>
     </row>
     <row r="6" spans="1:27" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="115"/>
+      <c r="A6" s="103"/>
       <c r="B6" s="50">
         <v>153365</v>
       </c>
@@ -3299,50 +3308,50 @@
       <c r="F6" s="65" t="s">
         <v>125</v>
       </c>
-      <c r="G6" s="118"/>
+      <c r="G6" s="106"/>
       <c r="H6" s="68" t="s">
         <v>155</v>
       </c>
-      <c r="I6" s="109"/>
-      <c r="J6" s="97"/>
+      <c r="I6" s="119"/>
+      <c r="J6" s="109"/>
       <c r="K6" s="60" t="s">
         <v>156</v>
       </c>
-      <c r="L6" s="112"/>
-      <c r="M6" s="97"/>
+      <c r="L6" s="122"/>
+      <c r="M6" s="109"/>
       <c r="N6" s="68" t="s">
         <v>157</v>
       </c>
-      <c r="O6" s="97"/>
-      <c r="P6" s="97"/>
+      <c r="O6" s="109"/>
+      <c r="P6" s="109"/>
       <c r="Q6" s="68" t="s">
         <v>158</v>
       </c>
-      <c r="R6" s="97"/>
-      <c r="S6" s="97"/>
+      <c r="R6" s="109"/>
+      <c r="S6" s="109"/>
       <c r="T6" s="68" t="s">
         <v>159</v>
       </c>
-      <c r="U6" s="97"/>
-      <c r="V6" s="97"/>
+      <c r="U6" s="109"/>
+      <c r="V6" s="109"/>
       <c r="W6" s="68" t="s">
         <v>160</v>
       </c>
-      <c r="X6" s="97"/>
-      <c r="Y6" s="106"/>
+      <c r="X6" s="109"/>
+      <c r="Y6" s="116"/>
       <c r="Z6" s="69" t="s">
         <v>161</v>
       </c>
-      <c r="AA6" s="94"/>
+      <c r="AA6" s="129"/>
     </row>
     <row r="7" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="119"/>
+      <c r="A7" s="110"/>
       <c r="B7" s="54"/>
       <c r="C7" s="54"/>
       <c r="D7" s="54"/>
       <c r="E7" s="54"/>
       <c r="F7" s="53"/>
-      <c r="G7" s="120"/>
+      <c r="G7" s="92"/>
       <c r="H7" s="35"/>
       <c r="I7" s="35"/>
       <c r="J7" s="35"/>
@@ -3362,13 +3371,13 @@
       <c r="X7" s="35"/>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A8" s="119"/>
+      <c r="A8" s="110"/>
       <c r="B8" s="54"/>
       <c r="C8" s="54"/>
       <c r="D8" s="54"/>
       <c r="E8" s="54"/>
       <c r="F8" s="53"/>
-      <c r="G8" s="120"/>
+      <c r="G8" s="92"/>
       <c r="H8" s="35"/>
       <c r="I8" s="35"/>
       <c r="J8" s="35"/>
@@ -3388,12 +3397,12 @@
       <c r="X8" s="35"/>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A9" s="119"/>
+      <c r="A9" s="110"/>
       <c r="B9" s="54"/>
       <c r="C9" s="54"/>
       <c r="D9" s="54"/>
       <c r="F9" s="53"/>
-      <c r="G9" s="120"/>
+      <c r="G9" s="92"/>
       <c r="H9" s="35"/>
       <c r="I9" s="35"/>
       <c r="J9" s="35"/>
@@ -3413,13 +3422,13 @@
       <c r="X9" s="35"/>
     </row>
     <row r="10" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="121"/>
+      <c r="A10" s="91"/>
       <c r="B10" s="54"/>
       <c r="C10" s="54"/>
       <c r="D10" s="54"/>
       <c r="E10" s="54"/>
       <c r="F10" s="55"/>
-      <c r="G10" s="120"/>
+      <c r="G10" s="92"/>
       <c r="H10" s="35"/>
       <c r="I10" s="35"/>
       <c r="J10" s="35"/>
@@ -3439,13 +3448,13 @@
       <c r="X10" s="35"/>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A11" s="121"/>
+      <c r="A11" s="91"/>
       <c r="B11" s="54"/>
       <c r="C11" s="54"/>
       <c r="D11" s="54"/>
       <c r="E11" s="54"/>
       <c r="F11" s="55"/>
-      <c r="G11" s="120"/>
+      <c r="G11" s="92"/>
       <c r="H11" s="35"/>
       <c r="I11" s="35"/>
       <c r="J11" s="35"/>
@@ -3465,13 +3474,13 @@
       <c r="X11" s="35"/>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A12" s="121"/>
+      <c r="A12" s="91"/>
       <c r="B12" s="54"/>
       <c r="C12" s="54"/>
       <c r="D12" s="54"/>
       <c r="E12" s="54"/>
       <c r="F12" s="55"/>
-      <c r="G12" s="120"/>
+      <c r="G12" s="92"/>
       <c r="H12" s="35"/>
       <c r="I12" s="35"/>
       <c r="J12" s="35"/>
@@ -3493,12 +3502,13 @@
     <row r="13" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="A10:A12"/>
-    <mergeCell ref="G10:G12"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="B1:F2"/>
-    <mergeCell ref="A4:A6"/>
-    <mergeCell ref="G4:G6"/>
+    <mergeCell ref="R4:R6"/>
+    <mergeCell ref="V2:X2"/>
+    <mergeCell ref="S2:U2"/>
+    <mergeCell ref="Y2:AA2"/>
+    <mergeCell ref="AA4:AA6"/>
+    <mergeCell ref="X4:X6"/>
+    <mergeCell ref="U4:U6"/>
     <mergeCell ref="O4:O6"/>
     <mergeCell ref="A7:A9"/>
     <mergeCell ref="G7:G9"/>
@@ -3515,13 +3525,12 @@
     <mergeCell ref="J2:L2"/>
     <mergeCell ref="M2:O2"/>
     <mergeCell ref="P2:R2"/>
-    <mergeCell ref="S2:U2"/>
-    <mergeCell ref="Y2:AA2"/>
-    <mergeCell ref="AA4:AA6"/>
-    <mergeCell ref="X4:X6"/>
-    <mergeCell ref="U4:U6"/>
-    <mergeCell ref="R4:R6"/>
-    <mergeCell ref="V2:X2"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="G10:G12"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:F2"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="G4:G6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
